--- a/v2-Implementation/Data/Data.xlsx
+++ b/v2-Implementation/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Gamma</t>
   </si>
   <si>
-    <t>Cost of Waiting Graph</t>
-  </si>
-  <si>
     <t>Cost of Scheduling
 (cs)</t>
   </si>
@@ -144,13 +141,16 @@
     <t>UV</t>
   </si>
   <si>
-    <t>-0,0</t>
+    <t>UL</t>
   </si>
   <si>
-    <t>MAYBE THERE ARE BUGS/MODEL ISSUES WITH ^ VALUE</t>
+    <t>Waiting</t>
   </si>
   <si>
-    <t>UL</t>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>-10,10</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,20 +322,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -360,7 +363,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -373,18 +376,34 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3626098751078927E-2"/>
+          <c:y val="4.6586736657917759E-2"/>
+          <c:w val="0.72119413764554596"/>
+          <c:h val="0.87145182852143477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Parameters'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waiting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -498,6 +517,133 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Parameters'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scheduling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Parameters'!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Parameters'!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1576250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21550625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2762815625000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.340095640625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4071004226562502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4774554437890626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5513282159785158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6288946267774416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7103393581163138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7958563260221292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.885649142323236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9799315994393973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -506,11 +652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211952192"/>
-        <c:axId val="211952768"/>
+        <c:axId val="79734464"/>
+        <c:axId val="79735040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211952192"/>
+        <c:axId val="79734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,15 +666,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211952768"/>
+        <c:crossAx val="79735040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211952768"/>
+        <c:axId val="79735040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -537,11 +682,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211952192"/>
+        <c:crossAx val="79734464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -558,20 +708,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -879,7 +1029,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1193,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,16 +1229,14 @@
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -1112,7 +1260,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1264,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,9 +1423,12 @@
     <col min="1" max="1" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1296,54 +1447,44 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
@@ -1357,7 +1498,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,9 +2079,10 @@
     <col min="3" max="3" width="23.140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +2090,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
@@ -1956,12 +2098,15 @@
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1969,13 +2114,13 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="D2">
         <v>10000</v>
       </c>
       <c r="E2">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1984,8 +2129,12 @@
         <f t="shared" ref="H2:H16" si="0">$A$2^G2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="22">
+        <f t="shared" ref="I2:I16" si="1">$C$2^G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3">
         <v>1</v>
       </c>
@@ -1993,8 +2142,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>2</v>
       </c>
@@ -2002,8 +2155,12 @@
         <f t="shared" si="0"/>
         <v>1.2100000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>3</v>
       </c>
@@ -2011,8 +2168,12 @@
         <f t="shared" si="0"/>
         <v>1.3310000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.1576250000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>4</v>
       </c>
@@ -2020,8 +2181,12 @@
         <f t="shared" si="0"/>
         <v>1.4641000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.21550625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>5</v>
       </c>
@@ -2029,8 +2194,12 @@
         <f t="shared" si="0"/>
         <v>1.6105100000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.2762815625000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>6</v>
       </c>
@@ -2038,8 +2207,12 @@
         <f t="shared" si="0"/>
         <v>1.7715610000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.340095640625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>7</v>
       </c>
@@ -2047,8 +2220,12 @@
         <f t="shared" si="0"/>
         <v>1.9487171000000012</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.4071004226562502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>8</v>
       </c>
@@ -2056,8 +2233,12 @@
         <f t="shared" si="0"/>
         <v>2.1435888100000011</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.4774554437890626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>9</v>
       </c>
@@ -2065,8 +2246,12 @@
         <f t="shared" si="0"/>
         <v>2.3579476910000015</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.5513282159785158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>10</v>
       </c>
@@ -2074,8 +2259,12 @@
         <f t="shared" si="0"/>
         <v>2.5937424601000019</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.6288946267774416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>11</v>
       </c>
@@ -2083,8 +2272,12 @@
         <f t="shared" si="0"/>
         <v>2.8531167061100025</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.7103393581163138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>12</v>
       </c>
@@ -2092,8 +2285,12 @@
         <f t="shared" si="0"/>
         <v>3.1384283767210026</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.7958563260221292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>13</v>
       </c>
@@ -2101,8 +2298,12 @@
         <f t="shared" si="0"/>
         <v>3.4522712143931029</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.885649142323236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>14</v>
       </c>
@@ -2110,11 +2311,12 @@
         <f t="shared" si="0"/>
         <v>3.7974983358324139</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.9799315994393973</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2123,10 +2325,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q222"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,57 +2352,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2220,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="16">
         <v>1</v>
@@ -2235,12 +2437,12 @@
         <v>8</v>
       </c>
       <c r="K3" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="14">
         <v>1</v>
       </c>
@@ -2251,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="16">
         <v>1</v>
@@ -2266,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -2297,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2313,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
@@ -2328,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2344,7 +2546,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -2359,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2375,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
@@ -2390,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2406,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -2421,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="16">
         <v>1</v>
@@ -2452,7 +2654,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2468,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
@@ -2483,7 +2685,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -2514,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2530,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
@@ -2545,16 +2747,16 @@
         <v>8</v>
       </c>
       <c r="K13" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="16">
         <v>2</v>
       </c>
@@ -2568,16 +2770,16 @@
         <v>8</v>
       </c>
       <c r="K14" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="16">
         <v>2</v>
       </c>
@@ -2591,16 +2793,16 @@
         <v>8</v>
       </c>
       <c r="K15" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="16">
         <v>2</v>
       </c>
@@ -2614,16 +2816,16 @@
         <v>8</v>
       </c>
       <c r="K16" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="16">
         <v>2</v>
       </c>
@@ -2637,16 +2839,16 @@
         <v>8</v>
       </c>
       <c r="K17" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="16">
         <v>2</v>
       </c>
@@ -2660,16 +2862,16 @@
         <v>8</v>
       </c>
       <c r="K18" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="16">
         <v>2</v>
       </c>
@@ -2683,16 +2885,16 @@
         <v>8</v>
       </c>
       <c r="K19" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="16">
         <v>2</v>
       </c>
@@ -2706,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="K20" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="16">
         <v>2</v>
       </c>
@@ -2729,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="16">
         <v>2</v>
       </c>
@@ -2752,16 +2954,16 @@
         <v>8</v>
       </c>
       <c r="K22" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="16">
         <v>2</v>
       </c>
@@ -2775,16 +2977,16 @@
         <v>8</v>
       </c>
       <c r="K23" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="16">
         <v>2</v>
       </c>
@@ -2798,16 +3000,16 @@
         <v>8</v>
       </c>
       <c r="K24" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="16">
         <v>3</v>
       </c>
@@ -2821,16 +3023,16 @@
         <v>8</v>
       </c>
       <c r="K25" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="16">
         <v>3</v>
       </c>
@@ -2844,16 +3046,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="16">
         <v>3</v>
       </c>
@@ -2867,16 +3069,16 @@
         <v>8</v>
       </c>
       <c r="K27" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="16">
         <v>3</v>
       </c>
@@ -2890,16 +3092,16 @@
         <v>8</v>
       </c>
       <c r="K28" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="16">
         <v>3</v>
       </c>
@@ -2913,16 +3115,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="16">
         <v>3</v>
       </c>
@@ -2936,16 +3138,16 @@
         <v>8</v>
       </c>
       <c r="K30" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="16">
         <v>3</v>
       </c>
@@ -2959,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="K31" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="16">
         <v>3</v>
       </c>
@@ -2982,16 +3184,16 @@
         <v>8</v>
       </c>
       <c r="K32" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="16">
         <v>3</v>
       </c>
@@ -3005,16 +3207,16 @@
         <v>8</v>
       </c>
       <c r="K33" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="16">
         <v>3</v>
       </c>
@@ -3028,16 +3230,16 @@
         <v>8</v>
       </c>
       <c r="K34" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="16">
         <v>3</v>
       </c>
@@ -3051,16 +3253,16 @@
         <v>8</v>
       </c>
       <c r="K35" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="16">
         <v>4</v>
       </c>
@@ -3074,16 +3276,16 @@
         <v>8</v>
       </c>
       <c r="K36" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="16">
         <v>4</v>
       </c>
@@ -3097,16 +3299,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="16">
         <v>4</v>
       </c>
@@ -3120,16 +3322,16 @@
         <v>8</v>
       </c>
       <c r="K38" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="16">
         <v>4</v>
       </c>
@@ -3143,16 +3345,16 @@
         <v>8</v>
       </c>
       <c r="K39" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="16">
         <v>4</v>
       </c>
@@ -3166,16 +3368,16 @@
         <v>8</v>
       </c>
       <c r="K40" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="16">
         <v>4</v>
       </c>
@@ -3189,16 +3391,16 @@
         <v>8</v>
       </c>
       <c r="K41" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="16">
         <v>4</v>
       </c>
@@ -3212,16 +3414,16 @@
         <v>8</v>
       </c>
       <c r="K42" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="16">
         <v>4</v>
       </c>
@@ -3235,16 +3437,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="16">
         <v>4</v>
       </c>
@@ -3258,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="K44" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="16">
         <v>4</v>
       </c>
@@ -3281,16 +3483,16 @@
         <v>8</v>
       </c>
       <c r="K45" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="16">
         <v>4</v>
       </c>
@@ -3304,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="K47" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3338,7 +3540,7 @@
         <v>8</v>
       </c>
       <c r="K48" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="7:11" x14ac:dyDescent="0.25">
@@ -3355,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.25">
@@ -3372,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="7:11" x14ac:dyDescent="0.25">
@@ -3389,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="K51" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="7:11" x14ac:dyDescent="0.25">
@@ -3406,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="K52" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="7:11" x14ac:dyDescent="0.25">
@@ -3423,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="K53" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="7:11" x14ac:dyDescent="0.25">
@@ -3440,7 +3642,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="7:11" x14ac:dyDescent="0.25">
@@ -3457,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="K55" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="7:11" x14ac:dyDescent="0.25">
@@ -3474,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="K56" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="7:11" x14ac:dyDescent="0.25">
@@ -3491,7 +3693,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="7:11" x14ac:dyDescent="0.25">
@@ -3508,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="K58" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="7:11" x14ac:dyDescent="0.25">
@@ -3525,7 +3727,7 @@
         <v>8</v>
       </c>
       <c r="K59" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="7:11" x14ac:dyDescent="0.25">
@@ -3542,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="K60" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="7:11" x14ac:dyDescent="0.25">
@@ -3559,7 +3761,7 @@
         <v>8</v>
       </c>
       <c r="K61" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="7:11" x14ac:dyDescent="0.25">
@@ -3576,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="K62" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="7:11" x14ac:dyDescent="0.25">
@@ -3593,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="K63" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="7:11" x14ac:dyDescent="0.25">
@@ -3610,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="K64" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="7:11" x14ac:dyDescent="0.25">
@@ -3627,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.25">
@@ -3644,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.25">
@@ -3661,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="K67" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="7:11" x14ac:dyDescent="0.25">
@@ -3678,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="K68" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="7:11" x14ac:dyDescent="0.25">
@@ -3695,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="K69" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="7:11" x14ac:dyDescent="0.25">
@@ -3712,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="K70" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="7:11" x14ac:dyDescent="0.25">
@@ -3729,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="K71" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.25">
@@ -3746,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="K72" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="7:11" x14ac:dyDescent="0.25">
@@ -3763,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="7:11" x14ac:dyDescent="0.25">
@@ -3780,7 +3982,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="7:11" x14ac:dyDescent="0.25">
@@ -3797,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="K75" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="7:11" x14ac:dyDescent="0.25">
@@ -3814,7 +4016,7 @@
         <v>8</v>
       </c>
       <c r="K76" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="7:11" x14ac:dyDescent="0.25">
@@ -3831,7 +4033,7 @@
         <v>8</v>
       </c>
       <c r="K77" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="7:11" x14ac:dyDescent="0.25">
@@ -3848,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="K78" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="7:11" x14ac:dyDescent="0.25">
@@ -3865,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="7:11" x14ac:dyDescent="0.25">
@@ -3882,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="K80" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="7:11" x14ac:dyDescent="0.25">
@@ -3899,7 +4101,7 @@
         <v>8</v>
       </c>
       <c r="K81" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="7:11" x14ac:dyDescent="0.25">
@@ -3916,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="K82" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="7:11" x14ac:dyDescent="0.25">
@@ -3933,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="K83" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.25">
@@ -3950,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="K84" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="7:11" x14ac:dyDescent="0.25">
@@ -3967,7 +4169,7 @@
         <v>8</v>
       </c>
       <c r="K85" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="7:11" x14ac:dyDescent="0.25">
@@ -3984,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="K86" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="7:11" x14ac:dyDescent="0.25">
@@ -4001,7 +4203,7 @@
         <v>8</v>
       </c>
       <c r="K87" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="7:11" x14ac:dyDescent="0.25">
@@ -4018,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="K88" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="7:11" x14ac:dyDescent="0.25">
@@ -4035,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="K89" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="7:11" x14ac:dyDescent="0.25">
@@ -4052,7 +4254,7 @@
         <v>8</v>
       </c>
       <c r="K90" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="7:11" x14ac:dyDescent="0.25">
@@ -4069,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="K91" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="7:11" x14ac:dyDescent="0.25">
@@ -4086,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="K92" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="7:11" x14ac:dyDescent="0.25">
@@ -4103,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="K93" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="7:11" x14ac:dyDescent="0.25">
@@ -4120,7 +4322,7 @@
         <v>8</v>
       </c>
       <c r="K94" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="7:11" x14ac:dyDescent="0.25">
@@ -4137,7 +4339,7 @@
         <v>8</v>
       </c>
       <c r="K95" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="7:11" x14ac:dyDescent="0.25">
@@ -4154,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="K96" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="7:11" x14ac:dyDescent="0.25">
@@ -4171,7 +4373,7 @@
         <v>8</v>
       </c>
       <c r="K97" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="7:11" x14ac:dyDescent="0.25">
@@ -4188,7 +4390,7 @@
         <v>8</v>
       </c>
       <c r="K98" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="7:11" x14ac:dyDescent="0.25">
@@ -4205,7 +4407,7 @@
         <v>8</v>
       </c>
       <c r="K99" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="7:11" x14ac:dyDescent="0.25">
@@ -4222,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="K100" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="7:11" x14ac:dyDescent="0.25">
@@ -4239,7 +4441,7 @@
         <v>8</v>
       </c>
       <c r="K101" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="7:11" x14ac:dyDescent="0.25">
@@ -4256,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="K102" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="7:11" x14ac:dyDescent="0.25">
@@ -4273,7 +4475,7 @@
         <v>8</v>
       </c>
       <c r="K103" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="7:11" x14ac:dyDescent="0.25">
@@ -4290,7 +4492,7 @@
         <v>8</v>
       </c>
       <c r="K104" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="7:11" x14ac:dyDescent="0.25">
@@ -4307,7 +4509,7 @@
         <v>8</v>
       </c>
       <c r="K105" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="7:11" x14ac:dyDescent="0.25">
@@ -4324,7 +4526,7 @@
         <v>8</v>
       </c>
       <c r="K106" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="7:11" x14ac:dyDescent="0.25">
@@ -4341,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="K107" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="7:11" x14ac:dyDescent="0.25">
@@ -4358,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="K108" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="7:11" x14ac:dyDescent="0.25">
@@ -4375,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="7:11" x14ac:dyDescent="0.25">
@@ -4392,7 +4594,7 @@
         <v>8</v>
       </c>
       <c r="K110" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="7:11" x14ac:dyDescent="0.25">
@@ -4409,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="K111" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="7:11" x14ac:dyDescent="0.25">
@@ -4426,8 +4628,778 @@
         <v>8</v>
       </c>
       <c r="K112" s="13">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G113" s="16"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="13"/>
+    </row>
+    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G114" s="16"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="13"/>
+    </row>
+    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G115" s="16"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G116" s="16"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="13"/>
+    </row>
+    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G117" s="16"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G118" s="16"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="13"/>
+    </row>
+    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G119" s="16"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G120" s="16"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="13"/>
+    </row>
+    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G121" s="16"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="13"/>
+    </row>
+    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G122" s="16"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="13"/>
+    </row>
+    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G123" s="16"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="13"/>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G124" s="16"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="13"/>
+    </row>
+    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G125" s="16"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="13"/>
+    </row>
+    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G126" s="16"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="13"/>
+    </row>
+    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G127" s="16"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="13"/>
+    </row>
+    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G128" s="16"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="13"/>
+    </row>
+    <row r="129" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G129" s="16"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="13"/>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G130" s="16"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="13"/>
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G131" s="16"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="13"/>
+    </row>
+    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G132" s="16"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="13"/>
+    </row>
+    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G133" s="16"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="13"/>
+    </row>
+    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G134" s="16"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="13"/>
+    </row>
+    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G135" s="16"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="13"/>
+    </row>
+    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G136" s="16"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="13"/>
+    </row>
+    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G137" s="16"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="13"/>
+    </row>
+    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G138" s="16"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="13"/>
+    </row>
+    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G139" s="16"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="13"/>
+    </row>
+    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G140" s="16"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="13"/>
+    </row>
+    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G141" s="16"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="13"/>
+    </row>
+    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G142" s="16"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="13"/>
+    </row>
+    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G143" s="16"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="13"/>
+    </row>
+    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G144" s="16"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="13"/>
+    </row>
+    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G145" s="16"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="13"/>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G146" s="16"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="13"/>
+    </row>
+    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G147" s="16"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="13"/>
+    </row>
+    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G148" s="16"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="13"/>
+    </row>
+    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G149" s="16"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="13"/>
+    </row>
+    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G150" s="16"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="13"/>
+    </row>
+    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G151" s="16"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="13"/>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G152" s="16"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="13"/>
+    </row>
+    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G153" s="16"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="13"/>
+    </row>
+    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G154" s="16"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="13"/>
+    </row>
+    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G155" s="16"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="13"/>
+    </row>
+    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G156" s="16"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="13"/>
+    </row>
+    <row r="157" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G157" s="16"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="13"/>
+    </row>
+    <row r="158" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G158" s="16"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="13"/>
+    </row>
+    <row r="159" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G159" s="16"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="13"/>
+    </row>
+    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G160" s="16"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="13"/>
+    </row>
+    <row r="161" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G161" s="16"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="13"/>
+    </row>
+    <row r="162" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G162" s="16"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="13"/>
+    </row>
+    <row r="163" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G163" s="16"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="13"/>
+    </row>
+    <row r="164" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G164" s="16"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="13"/>
+    </row>
+    <row r="165" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G165" s="16"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="13"/>
+    </row>
+    <row r="166" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G166" s="16"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="13"/>
+    </row>
+    <row r="167" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G167" s="16"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="13"/>
+    </row>
+    <row r="168" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G168" s="16"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="13"/>
+    </row>
+    <row r="169" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G169" s="16"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="13"/>
+    </row>
+    <row r="170" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G170" s="16"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="13"/>
+    </row>
+    <row r="171" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G171" s="16"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="13"/>
+    </row>
+    <row r="172" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G172" s="16"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="13"/>
+    </row>
+    <row r="173" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G173" s="16"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="13"/>
+    </row>
+    <row r="174" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G174" s="16"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="13"/>
+    </row>
+    <row r="175" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G175" s="16"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="13"/>
+    </row>
+    <row r="176" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G176" s="16"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="13"/>
+    </row>
+    <row r="177" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G177" s="16"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="13"/>
+    </row>
+    <row r="178" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G178" s="16"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="13"/>
+    </row>
+    <row r="179" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G179" s="16"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="13"/>
+    </row>
+    <row r="180" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G180" s="16"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="13"/>
+    </row>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G181" s="16"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="13"/>
+    </row>
+    <row r="182" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G182" s="16"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="13"/>
+    </row>
+    <row r="183" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G183" s="16"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="13"/>
+    </row>
+    <row r="184" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G184" s="16"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="13"/>
+    </row>
+    <row r="185" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G185" s="16"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="13"/>
+    </row>
+    <row r="186" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G186" s="16"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="13"/>
+    </row>
+    <row r="187" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G187" s="16"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="13"/>
+    </row>
+    <row r="188" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G188" s="16"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="13"/>
+    </row>
+    <row r="189" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G189" s="16"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="13"/>
+    </row>
+    <row r="190" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G190" s="16"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="13"/>
+    </row>
+    <row r="191" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G191" s="16"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="13"/>
+    </row>
+    <row r="192" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G192" s="16"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="13"/>
+    </row>
+    <row r="193" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G193" s="16"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="16"/>
+      <c r="K193" s="13"/>
+    </row>
+    <row r="194" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G194" s="16"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="13"/>
+    </row>
+    <row r="195" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G195" s="16"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="16"/>
+      <c r="K195" s="13"/>
+    </row>
+    <row r="196" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G196" s="16"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="16"/>
+      <c r="K196" s="13"/>
+    </row>
+    <row r="197" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G197" s="16"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="16"/>
+      <c r="K197" s="13"/>
+    </row>
+    <row r="198" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G198" s="16"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="16"/>
+      <c r="K198" s="13"/>
+    </row>
+    <row r="199" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G199" s="16"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="16"/>
+      <c r="K199" s="13"/>
+    </row>
+    <row r="200" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G200" s="16"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="16"/>
+      <c r="K200" s="13"/>
+    </row>
+    <row r="201" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G201" s="16"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="16"/>
+      <c r="K201" s="13"/>
+    </row>
+    <row r="202" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G202" s="16"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="16"/>
+      <c r="K202" s="13"/>
+    </row>
+    <row r="203" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G203" s="16"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="16"/>
+      <c r="K203" s="13"/>
+    </row>
+    <row r="204" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G204" s="16"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="16"/>
+      <c r="K204" s="13"/>
+    </row>
+    <row r="205" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G205" s="16"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="16"/>
+      <c r="K205" s="13"/>
+    </row>
+    <row r="206" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G206" s="16"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="16"/>
+      <c r="K206" s="13"/>
+    </row>
+    <row r="207" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G207" s="16"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="16"/>
+      <c r="K207" s="13"/>
+    </row>
+    <row r="208" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G208" s="16"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="16"/>
+      <c r="K208" s="13"/>
+    </row>
+    <row r="209" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G209" s="16"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="16"/>
+      <c r="K209" s="13"/>
+    </row>
+    <row r="210" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G210" s="16"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="16"/>
+      <c r="K210" s="13"/>
+    </row>
+    <row r="211" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G211" s="16"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="16"/>
+      <c r="K211" s="13"/>
+    </row>
+    <row r="212" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G212" s="16"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="16"/>
+      <c r="K212" s="13"/>
+    </row>
+    <row r="213" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G213" s="16"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="16"/>
+      <c r="K213" s="13"/>
+    </row>
+    <row r="214" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G214" s="16"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="16"/>
+      <c r="K214" s="13"/>
+    </row>
+    <row r="215" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G215" s="16"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="16"/>
+      <c r="K215" s="13"/>
+    </row>
+    <row r="216" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G216" s="16"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="16"/>
+      <c r="K216" s="13"/>
+    </row>
+    <row r="217" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G217" s="16"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="16"/>
+      <c r="K217" s="13"/>
+    </row>
+    <row r="218" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G218" s="16"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="16"/>
+      <c r="K218" s="13"/>
+    </row>
+    <row r="219" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G219" s="16"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="16"/>
+      <c r="K219" s="13"/>
+    </row>
+    <row r="220" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G220" s="16"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="16"/>
+      <c r="K220" s="13"/>
+    </row>
+    <row r="221" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G221" s="16"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="16"/>
+      <c r="K221" s="13"/>
+    </row>
+    <row r="222" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G222" s="16"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="16"/>
+      <c r="K222" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4469,89 +5441,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="O2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">

--- a/v2-Implementation/Data/Data.xlsx
+++ b/v2-Implementation/Data/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="43">
   <si>
     <t xml:space="preserve">Time Horizon (t)</t>
   </si>
@@ -338,7 +338,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,10 +443,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,10 +534,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
@@ -604,9 +600,7 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
@@ -616,73 +610,43 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>6</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="n">
-        <v>10</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -757,10 +721,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -1000,7 +964,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.72"/>
@@ -1100,10 +1064,10 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -1147,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -1716,7 +1680,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
@@ -1778,12 +1742,12 @@
   <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="12.57"/>
@@ -1884,7 +1848,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18" t="n">
         <v>1</v>
@@ -1902,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H4" s="18" t="n">
         <v>1</v>
@@ -1939,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5" s="18" t="n">
         <v>1</v>
@@ -1976,32 +1940,22 @@
         <v>9</v>
       </c>
       <c r="M5" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>30</v>
-      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>7</v>
@@ -2013,32 +1967,22 @@
         <v>9</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>30</v>
-      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="22" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>4</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>7</v>
@@ -2050,32 +1994,22 @@
         <v>9</v>
       </c>
       <c r="M7" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>30</v>
-      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>7</v>
@@ -2087,193 +2021,83 @@
         <v>9</v>
       </c>
       <c r="M8" s="23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24"/>
@@ -2283,24 +2107,12 @@
       <c r="E14" s="20"/>
       <c r="F14" s="25"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
@@ -2310,24 +2122,12 @@
       <c r="E15" s="20"/>
       <c r="F15" s="25"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24"/>
@@ -2337,24 +2137,12 @@
       <c r="E16" s="20"/>
       <c r="F16" s="25"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24"/>
@@ -2364,24 +2152,12 @@
       <c r="E17" s="20"/>
       <c r="F17" s="25"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24"/>
@@ -2391,24 +2167,12 @@
       <c r="E18" s="20"/>
       <c r="F18" s="25"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24"/>
@@ -2418,24 +2182,12 @@
       <c r="E19" s="20"/>
       <c r="F19" s="25"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
@@ -2445,24 +2197,12 @@
       <c r="E20" s="20"/>
       <c r="F20" s="25"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24"/>
@@ -2472,24 +2212,12 @@
       <c r="E21" s="20"/>
       <c r="F21" s="25"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24"/>
@@ -2499,1992 +2227,742 @@
       <c r="E22" s="20"/>
       <c r="F22" s="25"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="25"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="25"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I48" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I50" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I51" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M51" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M52" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I53" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M53" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I54" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I55" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I56" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M56" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I57" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I58" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M58" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M59" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I60" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K60" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M60" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I61" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M61" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I62" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M62" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I63" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M63" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I64" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M64" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H64" s="18"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M65" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I66" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M66" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I67" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M67" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I68" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L68" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M68" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I69" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M69" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I70" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M70" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I71" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M71" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H71" s="18"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I72" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M72" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I73" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M73" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I74" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L74" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M74" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I75" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M75" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I76" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K76" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M76" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I77" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J77" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L77" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M77" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I78" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M78" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I79" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K79" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L79" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M79" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I80" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M80" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H81" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I81" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M81" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I82" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K82" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M82" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H83" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I83" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J83" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M83" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="23"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H84" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I84" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M84" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H84" s="18"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H85" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I85" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M85" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H86" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I86" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M86" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H87" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I87" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M87" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H88" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I88" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K88" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M88" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H88" s="18"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H89" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I89" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M89" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H90" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I90" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M90" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H91" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I91" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M91" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H92" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I92" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M92" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I93" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M93" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H93" s="18"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I94" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K94" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M94" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="23"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I95" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K95" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L95" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M95" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H95" s="18"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="23"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H96" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I96" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J96" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K96" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L96" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M96" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H96" s="18"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H97" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I97" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L97" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M97" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H97" s="18"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H98" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I98" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K98" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L98" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M98" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="23"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I99" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K99" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L99" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M99" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H99" s="18"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="23"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I100" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M100" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="23"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H101" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I101" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M101" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="23"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I102" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K102" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M102" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H102" s="18"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="23"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I103" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L103" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M103" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="23"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I104" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J104" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L104" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M104" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H104" s="18"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="23"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H105" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I105" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L105" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M105" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H105" s="18"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="23"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H106" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I106" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J106" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L106" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M106" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H106" s="18"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="23"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I107" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J107" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L107" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M107" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H107" s="18"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="23"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I108" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J108" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L108" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M108" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H108" s="18"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="23"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H109" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I109" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L109" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M109" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H109" s="18"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="23"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H110" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I110" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L110" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M110" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H110" s="18"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="23"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H111" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I111" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J111" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L111" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M111" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H111" s="18"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="23"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H112" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I112" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J112" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K112" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L112" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M112" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="23"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="18"/>
@@ -5395,13 +3873,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3"/>
@@ -5513,7 +3991,7 @@
       <c r="D3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -5522,7 +4000,7 @@
       <c r="G3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="27" t="n">
+      <c r="H3" s="26" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -5534,7 +4012,7 @@
       <c r="K3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M3" s="0" t="n">
@@ -5569,7 +4047,7 @@
       <c r="D4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -5578,7 +4056,7 @@
       <c r="G4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="27" t="n">
+      <c r="H4" s="26" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -5590,7 +4068,7 @@
       <c r="K4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M4" s="0" t="n">
@@ -5625,7 +4103,7 @@
       <c r="D5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="26" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -5634,7 +4112,7 @@
       <c r="G5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="26" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -5646,7 +4124,7 @@
       <c r="K5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -5681,7 +4159,7 @@
       <c r="D6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="26" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -5690,7 +4168,7 @@
       <c r="G6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="27" t="n">
+      <c r="H6" s="26" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -5702,7 +4180,7 @@
       <c r="K6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -5737,7 +4215,7 @@
       <c r="D7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="26" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -5746,7 +4224,7 @@
       <c r="G7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="26" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -5758,7 +4236,7 @@
       <c r="K7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="0" t="n">
@@ -5793,7 +4271,7 @@
       <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="26" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -5802,7 +4280,7 @@
       <c r="G8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="26" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -5814,7 +4292,7 @@
       <c r="K8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -5849,7 +4327,7 @@
       <c r="D9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="26" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -5858,7 +4336,7 @@
       <c r="G9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="26" t="n">
         <v>7</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -5870,7 +4348,7 @@
       <c r="K9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -5905,7 +4383,7 @@
       <c r="D10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="26" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -5914,7 +4392,7 @@
       <c r="G10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="26" t="n">
         <v>8</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -5926,7 +4404,7 @@
       <c r="K10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -5961,7 +4439,7 @@
       <c r="D11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="26" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -5970,7 +4448,7 @@
       <c r="G11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="26" t="n">
         <v>9</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -5982,7 +4460,7 @@
       <c r="K11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -6017,7 +4495,7 @@
       <c r="D12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="26" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -6026,7 +4504,7 @@
       <c r="G12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="26" t="n">
         <v>10</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -6038,7 +4516,7 @@
       <c r="K12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -6073,7 +4551,7 @@
       <c r="D13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="26" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -6082,7 +4560,7 @@
       <c r="G13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="26" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -6094,7 +4572,7 @@
       <c r="K13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -6129,7 +4607,7 @@
       <c r="D14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="26" t="n">
         <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -6138,7 +4616,7 @@
       <c r="G14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="26" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -6150,7 +4628,7 @@
       <c r="K14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -6185,7 +4663,7 @@
       <c r="D15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="26" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -6194,7 +4672,7 @@
       <c r="G15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="26" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -6206,7 +4684,7 @@
       <c r="K15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M15" s="0" t="n">
@@ -6241,7 +4719,7 @@
       <c r="D16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="26" t="n">
         <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -6250,7 +4728,7 @@
       <c r="G16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="27" t="n">
+      <c r="H16" s="26" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -6262,7 +4740,7 @@
       <c r="K16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M16" s="0" t="n">
@@ -6297,7 +4775,7 @@
       <c r="D17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="26" t="n">
         <v>5</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -6306,7 +4784,7 @@
       <c r="G17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="27" t="n">
+      <c r="H17" s="26" t="n">
         <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -6318,7 +4796,7 @@
       <c r="K17" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="0" t="n">
@@ -6353,7 +4831,7 @@
       <c r="D18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="26" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -6362,7 +4840,7 @@
       <c r="G18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="27" t="n">
+      <c r="H18" s="26" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -6374,7 +4852,7 @@
       <c r="K18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="0" t="n">
@@ -6409,7 +4887,7 @@
       <c r="D19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="26" t="n">
         <v>7</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -6418,7 +4896,7 @@
       <c r="G19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="27" t="n">
+      <c r="H19" s="26" t="n">
         <v>7</v>
       </c>
       <c r="I19" s="0" t="n">
@@ -6430,7 +4908,7 @@
       <c r="K19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -6465,7 +4943,7 @@
       <c r="D20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="26" t="n">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -6474,7 +4952,7 @@
       <c r="G20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="27" t="n">
+      <c r="H20" s="26" t="n">
         <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -6486,7 +4964,7 @@
       <c r="K20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -6521,7 +4999,7 @@
       <c r="D21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="26" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -6530,7 +5008,7 @@
       <c r="G21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="26" t="n">
         <v>9</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -6542,7 +5020,7 @@
       <c r="K21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -6577,7 +5055,7 @@
       <c r="D22" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="27" t="n">
+      <c r="E22" s="26" t="n">
         <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -6586,7 +5064,7 @@
       <c r="G22" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="27" t="n">
+      <c r="H22" s="26" t="n">
         <v>10</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -6598,7 +5076,7 @@
       <c r="K22" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="0" t="n">
@@ -6621,15 +5099,15 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="J23" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="0" t="n">
@@ -6652,15 +5130,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="H24" s="26"/>
       <c r="J24" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="0" t="n">
@@ -6683,15 +5161,15 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="J25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="0" t="n">
@@ -6714,15 +5192,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="J26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="0" t="n">
@@ -6745,15 +5223,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="J27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -6776,15 +5254,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="J28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M28" s="0" t="n">
@@ -6807,15 +5285,15 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="H29" s="26"/>
       <c r="J29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="0" t="n">
@@ -6838,15 +5316,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="H30" s="26"/>
       <c r="J30" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="0" t="n">
@@ -6869,15 +5347,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="H31" s="26"/>
       <c r="J31" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="L31" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="0" t="n">
@@ -6900,15 +5378,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="H32" s="26"/>
       <c r="J32" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="L32" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="0" t="n">
@@ -6931,15 +5409,15 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="H33" s="26"/>
       <c r="J33" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M33" s="0" t="n">
@@ -6962,15 +5440,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="H34" s="26"/>
       <c r="J34" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M34" s="0" t="n">
@@ -6993,15 +5471,15 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="H35" s="26"/>
       <c r="J35" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="0" t="n">
@@ -7024,15 +5502,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="H36" s="26"/>
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="0" t="n">
@@ -7055,15 +5533,15 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="H37" s="26"/>
       <c r="J37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="0" t="n">
@@ -7086,15 +5564,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="E38" s="26"/>
+      <c r="H38" s="26"/>
       <c r="J38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M38" s="0" t="n">
@@ -7117,15 +5595,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="E39" s="26"/>
+      <c r="H39" s="26"/>
       <c r="J39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="L39" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="0" t="n">
@@ -7148,15 +5626,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="E40" s="26"/>
+      <c r="H40" s="26"/>
       <c r="J40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="0" t="n">
@@ -7179,15 +5657,15 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="H41" s="26"/>
       <c r="J41" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="0" t="n">
@@ -7210,15 +5688,15 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="H42" s="26"/>
       <c r="J42" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="0" t="n">
@@ -7241,15 +5719,15 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="H43" s="26"/>
       <c r="J43" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M43" s="0" t="n">
@@ -7272,15 +5750,15 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="E44" s="26"/>
+      <c r="H44" s="26"/>
       <c r="J44" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M44" s="0" t="n">
@@ -7303,15 +5781,15 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="H45" s="26"/>
       <c r="J45" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M45" s="0" t="n">
@@ -7334,15 +5812,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="E46" s="26"/>
+      <c r="H46" s="26"/>
       <c r="J46" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L46" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M46" s="0" t="n">
@@ -7365,9 +5843,9 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="L47" s="26"/>
       <c r="N47" s="0" t="n">
         <v>5</v>
       </c>
@@ -7385,9 +5863,9 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="L48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="L48" s="26"/>
       <c r="N48" s="0" t="n">
         <v>5</v>
       </c>
@@ -7405,9 +5883,9 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="L49" s="26"/>
       <c r="N49" s="0" t="n">
         <v>5</v>
       </c>
@@ -7425,9 +5903,9 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="L50" s="26"/>
       <c r="N50" s="0" t="n">
         <v>5</v>
       </c>
@@ -7445,9 +5923,9 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="L51" s="26"/>
       <c r="N51" s="0" t="n">
         <v>5</v>
       </c>
@@ -7465,9 +5943,9 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="L52" s="26"/>
       <c r="N52" s="0" t="n">
         <v>5</v>
       </c>
@@ -7485,7 +5963,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L53" s="27"/>
+      <c r="L53" s="26"/>
       <c r="N53" s="0" t="n">
         <v>5</v>
       </c>
@@ -7503,7 +5981,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="27"/>
+      <c r="L54" s="26"/>
       <c r="N54" s="0" t="n">
         <v>5</v>
       </c>
@@ -7521,7 +5999,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="27"/>
+      <c r="L55" s="26"/>
       <c r="N55" s="0" t="n">
         <v>5</v>
       </c>
@@ -7539,7 +6017,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L56" s="27"/>
+      <c r="L56" s="26"/>
       <c r="N56" s="0" t="n">
         <v>5</v>
       </c>
@@ -7557,7 +6035,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L57" s="27"/>
+      <c r="L57" s="26"/>
       <c r="N57" s="0" t="n">
         <v>5</v>
       </c>
@@ -7575,7 +6053,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L58" s="27"/>
+      <c r="L58" s="26"/>
       <c r="N58" s="0" t="n">
         <v>6</v>
       </c>
@@ -7593,7 +6071,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L59" s="27"/>
+      <c r="L59" s="26"/>
       <c r="N59" s="0" t="n">
         <v>6</v>
       </c>
@@ -7611,7 +6089,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L60" s="27"/>
+      <c r="L60" s="26"/>
       <c r="N60" s="0" t="n">
         <v>6</v>
       </c>
@@ -7629,7 +6107,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L61" s="27"/>
+      <c r="L61" s="26"/>
       <c r="N61" s="0" t="n">
         <v>6</v>
       </c>
@@ -7647,7 +6125,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="27"/>
+      <c r="L62" s="26"/>
       <c r="N62" s="0" t="n">
         <v>6</v>
       </c>
@@ -7665,7 +6143,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="27"/>
+      <c r="L63" s="26"/>
       <c r="N63" s="0" t="n">
         <v>6</v>
       </c>
